--- a/vnet/templates/vnet.xlsx
+++ b/vnet/templates/vnet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\Demo_Vnet\vnet\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\Demo_Vnet_2\vnet\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5F8BB-F121-4470-A284-2E352A64206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE00228D-B81B-4823-A2B2-BBD4AA8F176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4824" yWindow="3060" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>West Europe</t>
-  </si>
-  <si>
     <t>rt1-id</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>Microsoft.Storage, Microsoft.KeyVault</t>
+  </si>
+  <si>
+    <t>EAST US2</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,13 +631,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>5</v>
@@ -670,7 +670,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>29</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>38</v>
@@ -692,7 +692,7 @@
         <v>27</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -720,7 +720,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>30</v>

--- a/vnet/templates/vnet.xlsx
+++ b/vnet/templates/vnet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\Demo_Vnet_2\vnet\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE00228D-B81B-4823-A2B2-BBD4AA8F176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE660639-0377-4031-B9E7-C90E4FAC12F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4824" yWindow="3060" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,16 +171,16 @@
     <t>10.0.2.0/24</t>
   </si>
   <si>
-    <t>Looyas-Vnet</t>
-  </si>
-  <si>
     <t>Looyas_Rg</t>
   </si>
   <si>
     <t>Microsoft.Storage, Microsoft.KeyVault</t>
   </si>
   <si>
-    <t>EAST US2</t>
+    <t>West Europe</t>
+  </si>
+  <si>
+    <t>Demo_Vnet</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,13 +631,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>38</v>
@@ -692,7 +692,7 @@
         <v>27</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">

--- a/vnet/templates/vnet.xlsx
+++ b/vnet/templates/vnet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\Demo_Vnet_2\vnet\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE660639-0377-4031-B9E7-C90E4FAC12F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B466F56-80B3-4CE0-B542-87530ADE7FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4824" yWindow="3060" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,7 +180,7 @@
     <t>West Europe</t>
   </si>
   <si>
-    <t>Demo_Vnet</t>
+    <t>LOOYAS</t>
   </si>
 </sst>
 </file>
